--- a/assets/files/Sting.xlsx
+++ b/assets/files/Sting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zeel-my.sharepoint.com/personal/ashutosh_mhatre_zee_com/Documents/AUTO ID/Go Live Bulk ID Generation Excel Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zeel-my.sharepoint.com/personal/ashutosh_mhatre_zee_com/Documents/Bulk ID Generation Excel Modification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{70B80124-3884-4378-8E5A-F90D252F8600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42D5CC52-1662-4BF1-88E8-D4F8C415CE8D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0431AC71-465C-49B8-8E2D-2D45C638CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC089CAA-30D1-4A15-9BBA-32AD01FD78C6}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
   <si>
     <t>Location</t>
   </si>
@@ -477,6 +477,9 @@
   <si>
     <t>SD</t>
   </si>
+  <si>
+    <t>ZEE CINEMA HD MALAY</t>
+  </si>
 </sst>
 </file>
 
@@ -795,10 +798,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1100,7 +1099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50726,8 +50725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8479CE34-A5CB-4FD5-B856-0267076385A6}">
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A54" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51355,7 +51354,9 @@
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
@@ -51649,7 +51650,7 @@
       <c r="B159" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CEKMfSakEmFQV11JBpS0skyVjR0GSI9QCUfnXhxkbVsP5TnhhMGywXLcxlxgvawdzQp8C25NnlSYJj0fCHT9Tg==" saltValue="dwefWSoL5RQfou7pXbq0yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OD4NV9dZU7T/fa6EDo4IF68TI9Dh9czNVLJH40hD/gYmvF1e1wUuQ+wb/UjyjQplIYnP7CROYHUbpM3tnMVP8A==" saltValue="hyvFwA0tYOYFTnBWhHCiRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P11:P12"/>
@@ -51675,4 +51676,10 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{56bd48cd-f312-49e8-b6c7-7b5b926c03d6}" enabled="0" method="" siteId="{56bd48cd-f312-49e8-b6c7-7b5b926c03d6}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/assets/files/Sting.xlsx
+++ b/assets/files/Sting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zeel-my.sharepoint.com/personal/ashutosh_mhatre_zee_com/Documents/Bulk ID Generation Excel Modification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0431AC71-465C-49B8-8E2D-2D45C638CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{0431AC71-465C-49B8-8E2D-2D45C638CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6225489B-D6D9-4842-AD18-0AD038949CD5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC089CAA-30D1-4A15-9BBA-32AD01FD78C6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Master" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AFRICAS">Master!$E$3:$E$11</definedName>
+    <definedName name="AFRICAS">Master!$E$3:$E$13</definedName>
     <definedName name="AMERICAS">Master!$D$3:$D$47</definedName>
     <definedName name="ASIA">Master!$B$3:$B$159</definedName>
     <definedName name="EUROPE">Master!$C$3:$C$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="139">
   <si>
     <t>Location</t>
   </si>
@@ -480,6 +480,18 @@
   <si>
     <t>ZEE CINEMA HD MALAY</t>
   </si>
+  <si>
+    <t>LIVING FOODZ HD</t>
+  </si>
+  <si>
+    <t>ZEE PUNJAB HARYANA HIMACHAL</t>
+  </si>
+  <si>
+    <t>ZEE FAMILY</t>
+  </si>
+  <si>
+    <t>ZEE ZONKE</t>
+  </si>
 </sst>
 </file>
 
@@ -560,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -676,11 +688,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -738,6 +761,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1099,7 +1123,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50725,8 +50749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8479CE34-A5CB-4FD5-B856-0267076385A6}">
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50747,40 +50771,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="21"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
@@ -50796,22 +50820,22 @@
       <c r="F2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="G2" s="31"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -50820,7 +50844,7 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="22" t="s">
         <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -50850,18 +50874,18 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="22" t="s">
         <v>122</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -50891,18 +50915,18 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="22" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -50926,18 +50950,18 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="22" t="s">
         <v>124</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -50956,18 +50980,18 @@
         <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="22" t="s">
         <v>125</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -50980,16 +51004,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="22" t="s">
         <v>126</v>
       </c>
       <c r="O8" s="17" t="s">
@@ -50999,16 +51023,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="22" t="s">
         <v>127</v>
       </c>
       <c r="O9" s="17" t="s">
@@ -51018,11 +51042,11 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -51034,332 +51058,352 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="O11" s="17"/>
-      <c r="P11" s="25"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="C15" s="24"/>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="C17" s="24"/>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
@@ -51650,7 +51694,7 @@
       <c r="B159" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OD4NV9dZU7T/fa6EDo4IF68TI9Dh9czNVLJH40hD/gYmvF1e1wUuQ+wb/UjyjQplIYnP7CROYHUbpM3tnMVP8A==" saltValue="hyvFwA0tYOYFTnBWhHCiRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rGx+lzkjDx37cstak4z8PhVd8NwHlMW9njWs4Xe6nFBzvOIdIVwRJR/ogkCmU9zSV2JgQ6Vp8M9ARrHl8xhzfg==" saltValue="Xo6t2WLYhNcT/wdCZsSixA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P11:P12"/>
